--- a/src/test/resources/excel/TestCases_Actitime.xlsx
+++ b/src/test/resources/excel/TestCases_Actitime.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse\AutomationFrameWork-Maven\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9D8D8-3BC3-4EF2-9A9C-98211266BD20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -88,13 +94,28 @@
   </si>
   <si>
     <t>My Account-title should be displayed</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +151,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +208,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -177,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +304,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,25 +548,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -524,7 +604,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -535,12 +615,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -548,7 +628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>17</v>
       </c>
@@ -556,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>19</v>
@@ -565,7 +645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -574,56 +654,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
